--- a/nr-keep-only-ep/ig/PN13-FHIR-prescmed-practitioner-id-seul-conceptmap.xlsx
+++ b/nr-keep-only-ep/ig/PN13-FHIR-prescmed-practitioner-id-seul-conceptmap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:26:04+00:00</t>
+    <t>2025-10-28T16:05:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-keep-only-ep/ig/PN13-FHIR-prescmed-practitioner-id-seul-conceptmap.xlsx
+++ b/nr-keep-only-ep/ig/PN13-FHIR-prescmed-practitioner-id-seul-conceptmap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T16:05:01+00:00</t>
+    <t>2025-10-28T16:06:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-keep-only-ep/ig/PN13-FHIR-prescmed-practitioner-id-seul-conceptmap.xlsx
+++ b/nr-keep-only-ep/ig/PN13-FHIR-prescmed-practitioner-id-seul-conceptmap.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/eprescription/ConceptMap/PN13-FHIR-prescmed-practitioner-id-seul-conceptmap</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/eprescription/ConceptMap/PN13-FHIR-prescmed-practitioner-id-seul-conceptmap</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T16:06:33+00:00</t>
+    <t>2025-10-28T16:07:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -102,7 +102,7 @@
     <t>Target</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/eprescription/StructureDefinition/fr-inpatient-medicationrequest</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/eprescription/StructureDefinition/fr-inpatient-medicationrequest</t>
   </si>
   <si>
     <t>Display</t>

--- a/nr-keep-only-ep/ig/PN13-FHIR-prescmed-practitioner-id-seul-conceptmap.xlsx
+++ b/nr-keep-only-ep/ig/PN13-FHIR-prescmed-practitioner-id-seul-conceptmap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T16:07:48+00:00</t>
+    <t>2025-10-28T16:07:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-keep-only-ep/ig/PN13-FHIR-prescmed-practitioner-id-seul-conceptmap.xlsx
+++ b/nr-keep-only-ep/ig/PN13-FHIR-prescmed-practitioner-id-seul-conceptmap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T16:07:35+00:00</t>
+    <t>2025-10-28T16:42:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-keep-only-ep/ig/PN13-FHIR-prescmed-practitioner-id-seul-conceptmap.xlsx
+++ b/nr-keep-only-ep/ig/PN13-FHIR-prescmed-practitioner-id-seul-conceptmap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T16:42:48+00:00</t>
+    <t>2025-10-28T16:58:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-keep-only-ep/ig/PN13-FHIR-prescmed-practitioner-id-seul-conceptmap.xlsx
+++ b/nr-keep-only-ep/ig/PN13-FHIR-prescmed-practitioner-id-seul-conceptmap.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T16:58:49+00:00</t>
+    <t>2025-10-28T17:06:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
